--- a/DOWNLOADS/RESULTADO_metadados/categoria_o4-mini_v4.xlsx
+++ b/DOWNLOADS/RESULTADO_metadados/categoria_o4-mini_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/RESULTADO_metadados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_083858E643B5FF1AB68D10B7CD0DE00CAB419B7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31C35385-E7F1-4F71-957E-25200715999F}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_083858E643B5FF1AB68D10B7CD0DE00CAB419B7B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1182EE13-8415-4B1B-B404-D9037514E897}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7968,15 +7968,15 @@
   <dimension ref="A1:G933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K10" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
